--- a/Data/vaccwane.xlsx
+++ b/Data/vaccwane.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9442,7 +9442,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
